--- a/data/raw/variables_SF1.xlsx
+++ b/data/raw/variables_SF1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcamacho/Dropbox/Research/Tesis/Projects/ongoing_projects/Field_report/github/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61ACF037-74DA-504C-B01D-D0E3718E753B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B869E7B-8874-E648-9DC2-406833ACCC8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{8830F612-6D67-4B49-8A93-8FC60FD4EFBE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Supplementary File S1. Data of animals sampled and trapping effort</t>
   </si>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1936EA-AC27-B44A-86AF-DAECD0F9E45B}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,6 +747,14 @@
         <v>41</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
